--- a/PO_Assay_Data_01_26_21.xlsx
+++ b/PO_Assay_Data_01_26_21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Hillyer Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Hillyer Lab\Hillyer_PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B358944-8F2B-4293-9D41-A2BC1D8AB29B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70293D68-E84F-43FD-905A-CD1836F749AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{256007AD-8C01-4835-8420-CA19E5AD9CA2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
   <si>
     <t>Time</t>
   </si>
@@ -59,12 +59,36 @@
   <si>
     <t>L-DOPA_H2O</t>
   </si>
+  <si>
+    <t>Adult_age_in_days</t>
+  </si>
+  <si>
+    <t>Age_Date</t>
+  </si>
+  <si>
+    <t>Infection_Date</t>
+  </si>
+  <si>
+    <t>Sample_Collection_Date</t>
+  </si>
+  <si>
+    <t>PO_Assay_Date</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>E_coli_infection</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +98,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,9 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,917 +450,2263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED576B17-E5DC-4D16-9D7D-964AC7CD66C9}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="7" max="11" width="9.2265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.46</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
       <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>0.51600000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J3" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I4" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J4" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.66300000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J5" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.70199999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I6" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.71699999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>30</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.72299999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J8" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I9" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J9" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J10" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>7.8E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
+        <v>27</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I13" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J13" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I14" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J14" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>30</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I15" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>7.8E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I16" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17">
+        <v>27</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
       <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I17" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J17" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>10</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H18" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I18" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J18" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H19" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I19" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.107</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I20" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J20" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>25</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.121</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H21" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I21" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J21" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>30</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H22" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I22" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J22" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I23" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J23" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24">
+        <v>27</v>
+      </c>
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
       <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I24" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J24" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25">
+        <v>27</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I25" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J25" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26">
+        <v>27</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>15</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I26" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J26" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>20</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.252</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H27" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I27" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J27" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>25</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H28" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I28" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J28" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>30</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.38200000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H29" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I29" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J29" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.127</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H30" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I30" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J30" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
       <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H31" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I31" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J31" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>10</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.16900000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H32" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I32" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J32" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33">
         <v>2</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>15</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.187</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H33" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I33" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J33" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>20</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H34" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I34" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J34" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35">
         <v>2</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>25</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.224</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H35" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I35" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J35" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.25800000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H36" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I36" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J36" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.44900000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H37" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I37" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J37" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38">
+        <v>27</v>
+      </c>
+      <c r="C38">
         <v>3</v>
       </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
       <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J38" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39">
+        <v>27</v>
+      </c>
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>10</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.46200000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H39" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I39" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J39" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40">
+        <v>27</v>
+      </c>
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>15</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.47099999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H40" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I40" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J40" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41">
+        <v>27</v>
+      </c>
+      <c r="C41">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>20</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H41" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I41" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J41" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42">
         <v>3</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>25</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.61199999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H42" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I42" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J42" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43">
+        <v>27</v>
+      </c>
+      <c r="C43">
         <v>3</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>30</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.59499999999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H43" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I43" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J43" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44">
         <v>1</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H44" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I44" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J44" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45">
+        <v>27</v>
+      </c>
+      <c r="C45">
         <v>1</v>
       </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
       <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
         <v>0.16400000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H45" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I45" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J45" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46">
+        <v>27</v>
+      </c>
+      <c r="C46">
         <v>1</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>10</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H46" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I46" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J46" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47">
+        <v>27</v>
+      </c>
+      <c r="C47">
         <v>1</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>15</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H47" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I47" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J47" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48">
+        <v>27</v>
+      </c>
+      <c r="C48">
         <v>1</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.27900000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H48" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I48" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J48" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49">
+        <v>27</v>
+      </c>
+      <c r="C49">
         <v>1</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>25</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.29799999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H49" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I49" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J49" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50">
+        <v>27</v>
+      </c>
+      <c r="C50">
         <v>1</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>30</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H50" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I50" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J50" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>6</v>
       </c>
       <c r="B51">
+        <v>27</v>
+      </c>
+      <c r="C51">
         <v>2</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.17299999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H51" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I51" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J51" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52">
+        <v>27</v>
+      </c>
+      <c r="C52">
         <v>2</v>
       </c>
-      <c r="C52">
-        <v>5</v>
-      </c>
       <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H52" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I52" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J52" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>6</v>
       </c>
       <c r="B53">
+        <v>27</v>
+      </c>
+      <c r="C53">
         <v>2</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>10</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0.21299999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H53" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I53" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J53" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K53" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54">
+        <v>27</v>
+      </c>
+      <c r="C54">
         <v>2</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>15</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.25600000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H54" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I54" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J54" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55">
+        <v>27</v>
+      </c>
+      <c r="C55">
         <v>2</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>20</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0.28799999999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H55" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I55" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J55" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>6</v>
       </c>
       <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="C56">
         <v>2</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>25</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>0.29099999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H56" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I56" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J56" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>6</v>
       </c>
       <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57">
         <v>2</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>30</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>0.55400000000000005</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H57" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I57" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J57" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>6</v>
       </c>
       <c r="B58">
+        <v>27</v>
+      </c>
+      <c r="C58">
         <v>3</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>0</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H58" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I58" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J58" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>6</v>
       </c>
       <c r="B59">
+        <v>27</v>
+      </c>
+      <c r="C59">
         <v>3</v>
       </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
       <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H59" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I59" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J59" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>6</v>
       </c>
       <c r="B60">
+        <v>27</v>
+      </c>
+      <c r="C60">
         <v>3</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>10</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H60" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I60" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J60" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>6</v>
       </c>
       <c r="B61">
+        <v>27</v>
+      </c>
+      <c r="C61">
         <v>3</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>15</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H61" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I61" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J61" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>6</v>
       </c>
       <c r="B62">
+        <v>27</v>
+      </c>
+      <c r="C62">
         <v>3</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>20</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H62" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I62" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J62" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>6</v>
       </c>
       <c r="B63">
+        <v>27</v>
+      </c>
+      <c r="C63">
         <v>3</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>25</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H63" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I63" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J63" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K63" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>6</v>
       </c>
       <c r="B64">
+        <v>27</v>
+      </c>
+      <c r="C64">
         <v>3</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>30</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64" s="2">
+        <v>44213</v>
+      </c>
+      <c r="H64" s="2">
+        <v>44218</v>
+      </c>
+      <c r="I64" s="2">
+        <v>44219</v>
+      </c>
+      <c r="J64" s="2">
+        <v>44222</v>
+      </c>
+      <c r="K64" s="3">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B65">
-        <v>1</v>
+      <c r="B65" t="s">
+        <v>14</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1334,93 +2714,157 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B66">
-        <v>1</v>
+      <c r="B66" t="s">
+        <v>14</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>7</v>
       </c>
-      <c r="B67">
-        <v>1</v>
+      <c r="B67" t="s">
+        <v>14</v>
       </c>
       <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
         <v>10</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>7</v>
       </c>
-      <c r="B68">
-        <v>1</v>
+      <c r="B68" t="s">
+        <v>14</v>
       </c>
       <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
         <v>15</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>7</v>
       </c>
-      <c r="B69">
-        <v>1</v>
+      <c r="B69" t="s">
+        <v>14</v>
       </c>
       <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
         <v>20</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>7</v>
       </c>
-      <c r="B70">
-        <v>1</v>
+      <c r="B70" t="s">
+        <v>14</v>
       </c>
       <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
         <v>25</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>7</v>
       </c>
-      <c r="B71">
-        <v>1</v>
+      <c r="B71" t="s">
+        <v>14</v>
       </c>
       <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
         <v>30</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>44222</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>